--- a/NPCs.xlsx
+++ b/NPCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoore/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoore/Documents/GitHub/Puny-Asterix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EDB2BB-C7CB-154C-AC32-59A6CF26762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB6411-3A3D-154E-953F-E131A53D4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="14660" windowHeight="16920" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="29140" windowHeight="17840" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Oliver</t>
   </si>
@@ -78,18 +78,31 @@
   </si>
   <si>
     <t>Mabel</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,8 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,84 +466,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D119035-7EB0-F648-9DB9-EDEA9F5F4E03}">
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/NPCs.xlsx
+++ b/NPCs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoore/Documents/GitHub/Puny-Asterix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB6411-3A3D-154E-953F-E131A53D4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2565808-665D-5F41-86EE-6517BF7A5D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="29140" windowHeight="17840" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="10000" windowHeight="17400" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Oliver</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,16 +482,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -504,6 +513,9 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/NPCs.xlsx
+++ b/NPCs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoore/Documents/GitHub/Puny-Asterix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoorejr/Documents/GitHub/Puny-Asterix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2565808-665D-5F41-86EE-6517BF7A5D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11696D5-CCC0-874E-9B7D-17D013D24F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="10000" windowHeight="17400" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="10000" windowHeight="12380" xr2:uid="{A5A0A870-9846-3245-B4C9-BD6DE099F964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Oliver</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Linda</t>
-  </si>
-  <si>
-    <t>Maria</t>
   </si>
   <si>
     <t>Nurse Retch</t>
@@ -466,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D119035-7EB0-F648-9DB9-EDEA9F5F4E03}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,15 +496,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,22 +512,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -561,11 +564,6 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
